--- a/Figure4/Figure4B/output/singleplot_statistics_overlay.xlsx
+++ b/Figure4/Figure4B/output/singleplot_statistics_overlay.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="22">
   <si>
     <t>k</t>
   </si>
@@ -139,13 +139,1309 @@
       <alignment wrapText="true"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="198">
+  <cellXfs count="630">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="4"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="5"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
       <alignment wrapText="true"/>
     </xf>
@@ -743,152 +2039,152 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="150">
+      <c r="A1" t="s" s="582">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="151">
+      <c r="B1" t="s" s="583">
         <v>1</v>
       </c>
-      <c r="C1" t="s" s="152">
+      <c r="C1" t="s" s="584">
         <v>2</v>
       </c>
-      <c r="D1" t="s" s="153">
+      <c r="D1" t="s" s="585">
         <v>3</v>
       </c>
-      <c r="E1" t="s" s="154">
+      <c r="E1" t="s" s="586">
         <v>4</v>
       </c>
-      <c r="F1" t="s" s="155">
+      <c r="F1" t="s" s="587">
         <v>5</v>
       </c>
-      <c r="G1" t="s" s="156">
+      <c r="G1" t="s" s="588">
         <v>6</v>
       </c>
-      <c r="H1" t="s" s="157">
+      <c r="H1" t="s" s="589">
         <v>7</v>
       </c>
-      <c r="I1" t="s" s="158">
+      <c r="I1" t="s" s="590">
         <v>8</v>
       </c>
-      <c r="J1" t="s" s="159">
+      <c r="J1" t="s" s="591">
         <v>9</v>
       </c>
-      <c r="K1" t="s" s="160">
+      <c r="K1" t="s" s="592">
         <v>10</v>
       </c>
-      <c r="L1" t="s" s="161">
+      <c r="L1" t="s" s="593">
         <v>11</v>
       </c>
-      <c r="M1" t="s" s="162">
+      <c r="M1" t="s" s="594">
         <v>12</v>
       </c>
-      <c r="N1" t="s" s="163">
+      <c r="N1" t="s" s="595">
         <v>13</v>
       </c>
-      <c r="O1" t="s" s="164">
+      <c r="O1" t="s" s="596">
         <v>14</v>
       </c>
-      <c r="P1" t="s" s="165">
+      <c r="P1" t="s" s="597">
         <v>15</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="n" s="166">
+      <c r="A2" t="n" s="598">
         <v>2.0</v>
       </c>
-      <c r="B2" t="s" s="168">
+      <c r="B2" t="s" s="600">
         <v>16</v>
       </c>
-      <c r="C2" t="s" s="170">
+      <c r="C2" t="s" s="602">
         <v>18</v>
       </c>
-      <c r="D2" t="s" s="172">
+      <c r="D2" t="s" s="604">
         <v>19</v>
       </c>
-      <c r="E2" t="s" s="174">
+      <c r="E2" t="s" s="606">
         <v>20</v>
       </c>
-      <c r="F2" t="n" s="176">
+      <c r="F2" t="n" s="608">
         <v>0.30143699201715235</v>
       </c>
-      <c r="G2" t="n" s="178">
+      <c r="G2" t="n" s="610">
         <v>0.11820212305863358</v>
       </c>
-      <c r="H2" t="n" s="180">
+      <c r="H2" t="n" s="612">
         <v>1.4515657979605672</v>
       </c>
-      <c r="I2" t="n" s="182">
+      <c r="I2" t="n" s="614">
         <v>0.6801421680138874</v>
       </c>
-      <c r="J2" t="n" s="184">
+      <c r="J2" t="n" s="616">
         <v>-5.158612274323981</v>
       </c>
-      <c r="K2" t="n" s="186">
+      <c r="K2" t="n" s="618">
         <v>2.400072967398412</v>
       </c>
-      <c r="L2" t="n" s="188">
+      <c r="L2" t="n" s="620">
         <v>0.010857054520464855</v>
       </c>
-      <c r="M2" t="n" s="190">
+      <c r="M2" t="n" s="622">
         <v>0.023361465558379913</v>
       </c>
-      <c r="N2" t="n" s="192">
+      <c r="N2" t="n" s="624">
         <v>1.6173684520161274E-4</v>
       </c>
-      <c r="O2" t="n" s="194">
+      <c r="O2" t="n" s="626">
         <v>2.966434802078043E-4</v>
       </c>
-      <c r="P2" t="s" s="196">
+      <c r="P2" t="s" s="628">
         <v>21</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="n" s="167">
+      <c r="A3" t="n" s="599">
         <v>1.0</v>
       </c>
-      <c r="B3" t="s" s="169">
+      <c r="B3" t="s" s="601">
         <v>17</v>
       </c>
-      <c r="C3" t="s" s="171">
+      <c r="C3" t="s" s="603">
         <v>18</v>
       </c>
-      <c r="D3" t="s" s="173">
+      <c r="D3" t="s" s="605">
         <v>19</v>
       </c>
-      <c r="E3" t="s" s="175">
+      <c r="E3" t="s" s="607">
         <v>20</v>
       </c>
-      <c r="F3" t="n" s="177">
+      <c r="F3" t="n" s="609">
         <v>2.0711635986976566</v>
       </c>
-      <c r="G3" t="n" s="179">
+      <c r="G3" t="n" s="611">
         <v>0.23385691611081275</v>
       </c>
-      <c r="H3" t="n" s="181">
+      <c r="H3" t="n" s="613">
         <v>0.8901702035246382</v>
       </c>
-      <c r="I3" t="n" s="183">
+      <c r="I3" t="n" s="615">
         <v>0.04368701880107967</v>
       </c>
-      <c r="J3" t="n" s="185">
+      <c r="J3" t="n" s="617">
         <v>-0.640258484198303</v>
       </c>
-      <c r="K3" t="n" s="187">
+      <c r="K3" t="n" s="619">
         <v>0.02919998106529384</v>
       </c>
-      <c r="L3" t="n" s="189">
+      <c r="L3" t="n" s="621">
         <v>8.339774940642927E-5</v>
       </c>
-      <c r="M3" t="n" s="191">
+      <c r="M3" t="n" s="623">
         <v>5.448901732008136E-6</v>
       </c>
-      <c r="N3" t="n" s="193">
+      <c r="N3" t="n" s="625">
         <v>9.778100096361533E-5</v>
       </c>
-      <c r="O3" t="n" s="195">
+      <c r="O3" t="n" s="627">
         <v>6.21578554163253E-6</v>
       </c>
-      <c r="P3" t="s" s="197">
+      <c r="P3" t="s" s="629">
         <v>21</v>
       </c>
     </row>

--- a/Figure4/Figure4B/output/singleplot_statistics_overlay.xlsx
+++ b/Figure4/Figure4B/output/singleplot_statistics_overlay.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="22">
   <si>
     <t>k</t>
   </si>
@@ -139,13 +139,445 @@
       <alignment wrapText="true"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="630">
+  <cellXfs count="774">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="4"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="5"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
       <alignment wrapText="true"/>
     </xf>
@@ -2039,152 +2471,152 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="582">
+      <c r="A1" t="s" s="726">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="583">
+      <c r="B1" t="s" s="727">
         <v>1</v>
       </c>
-      <c r="C1" t="s" s="584">
+      <c r="C1" t="s" s="728">
         <v>2</v>
       </c>
-      <c r="D1" t="s" s="585">
+      <c r="D1" t="s" s="729">
         <v>3</v>
       </c>
-      <c r="E1" t="s" s="586">
+      <c r="E1" t="s" s="730">
         <v>4</v>
       </c>
-      <c r="F1" t="s" s="587">
+      <c r="F1" t="s" s="731">
         <v>5</v>
       </c>
-      <c r="G1" t="s" s="588">
+      <c r="G1" t="s" s="732">
         <v>6</v>
       </c>
-      <c r="H1" t="s" s="589">
+      <c r="H1" t="s" s="733">
         <v>7</v>
       </c>
-      <c r="I1" t="s" s="590">
+      <c r="I1" t="s" s="734">
         <v>8</v>
       </c>
-      <c r="J1" t="s" s="591">
+      <c r="J1" t="s" s="735">
         <v>9</v>
       </c>
-      <c r="K1" t="s" s="592">
+      <c r="K1" t="s" s="736">
         <v>10</v>
       </c>
-      <c r="L1" t="s" s="593">
+      <c r="L1" t="s" s="737">
         <v>11</v>
       </c>
-      <c r="M1" t="s" s="594">
+      <c r="M1" t="s" s="738">
         <v>12</v>
       </c>
-      <c r="N1" t="s" s="595">
+      <c r="N1" t="s" s="739">
         <v>13</v>
       </c>
-      <c r="O1" t="s" s="596">
+      <c r="O1" t="s" s="740">
         <v>14</v>
       </c>
-      <c r="P1" t="s" s="597">
+      <c r="P1" t="s" s="741">
         <v>15</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="n" s="598">
+      <c r="A2" t="n" s="742">
         <v>2.0</v>
       </c>
-      <c r="B2" t="s" s="600">
+      <c r="B2" t="s" s="744">
         <v>16</v>
       </c>
-      <c r="C2" t="s" s="602">
+      <c r="C2" t="s" s="746">
         <v>18</v>
       </c>
-      <c r="D2" t="s" s="604">
+      <c r="D2" t="s" s="748">
         <v>19</v>
       </c>
-      <c r="E2" t="s" s="606">
+      <c r="E2" t="s" s="750">
         <v>20</v>
       </c>
-      <c r="F2" t="n" s="608">
+      <c r="F2" t="n" s="752">
         <v>0.30143699201715235</v>
       </c>
-      <c r="G2" t="n" s="610">
+      <c r="G2" t="n" s="754">
         <v>0.11820212305863358</v>
       </c>
-      <c r="H2" t="n" s="612">
+      <c r="H2" t="n" s="756">
         <v>1.4515657979605672</v>
       </c>
-      <c r="I2" t="n" s="614">
+      <c r="I2" t="n" s="758">
         <v>0.6801421680138874</v>
       </c>
-      <c r="J2" t="n" s="616">
+      <c r="J2" t="n" s="760">
         <v>-5.158612274323981</v>
       </c>
-      <c r="K2" t="n" s="618">
+      <c r="K2" t="n" s="762">
         <v>2.400072967398412</v>
       </c>
-      <c r="L2" t="n" s="620">
+      <c r="L2" t="n" s="764">
         <v>0.010857054520464855</v>
       </c>
-      <c r="M2" t="n" s="622">
+      <c r="M2" t="n" s="766">
         <v>0.023361465558379913</v>
       </c>
-      <c r="N2" t="n" s="624">
+      <c r="N2" t="n" s="768">
         <v>1.6173684520161274E-4</v>
       </c>
-      <c r="O2" t="n" s="626">
+      <c r="O2" t="n" s="770">
         <v>2.966434802078043E-4</v>
       </c>
-      <c r="P2" t="s" s="628">
+      <c r="P2" t="s" s="772">
         <v>21</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="n" s="599">
+      <c r="A3" t="n" s="743">
         <v>1.0</v>
       </c>
-      <c r="B3" t="s" s="601">
+      <c r="B3" t="s" s="745">
         <v>17</v>
       </c>
-      <c r="C3" t="s" s="603">
+      <c r="C3" t="s" s="747">
         <v>18</v>
       </c>
-      <c r="D3" t="s" s="605">
+      <c r="D3" t="s" s="749">
         <v>19</v>
       </c>
-      <c r="E3" t="s" s="607">
+      <c r="E3" t="s" s="751">
         <v>20</v>
       </c>
-      <c r="F3" t="n" s="609">
+      <c r="F3" t="n" s="753">
         <v>2.0711635986976566</v>
       </c>
-      <c r="G3" t="n" s="611">
+      <c r="G3" t="n" s="755">
         <v>0.23385691611081275</v>
       </c>
-      <c r="H3" t="n" s="613">
+      <c r="H3" t="n" s="757">
         <v>0.8901702035246382</v>
       </c>
-      <c r="I3" t="n" s="615">
+      <c r="I3" t="n" s="759">
         <v>0.04368701880107967</v>
       </c>
-      <c r="J3" t="n" s="617">
+      <c r="J3" t="n" s="761">
         <v>-0.640258484198303</v>
       </c>
-      <c r="K3" t="n" s="619">
+      <c r="K3" t="n" s="763">
         <v>0.02919998106529384</v>
       </c>
-      <c r="L3" t="n" s="621">
+      <c r="L3" t="n" s="765">
         <v>8.339774940642927E-5</v>
       </c>
-      <c r="M3" t="n" s="623">
+      <c r="M3" t="n" s="767">
         <v>5.448901732008136E-6</v>
       </c>
-      <c r="N3" t="n" s="625">
+      <c r="N3" t="n" s="769">
         <v>9.778100096361533E-5</v>
       </c>
-      <c r="O3" t="n" s="627">
+      <c r="O3" t="n" s="771">
         <v>6.21578554163253E-6</v>
       </c>
-      <c r="P3" t="s" s="629">
+      <c r="P3" t="s" s="773">
         <v>21</v>
       </c>
     </row>
